--- a/biology/Zoologie/Hamptophryne_alios/Hamptophryne_alios.xlsx
+++ b/biology/Zoologie/Hamptophryne_alios/Hamptophryne_alios.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hamptophryne alios est une espèce d'amphibiens de la famille des Microhylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hamptophryne alios est une espèce d'amphibiens de la famille des Microhylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 au Pérou dans sa localité type à environ 15 km au Nord-Est de Puerto Maldonado dans la région de Madre de Dios ;
 en Bolivie sur un seul et unique site ;
 au Brésil dans la municipalité de Porto Velho dans l’État du Rondônia.</t>
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Altigius alios mesure environ 50 mm. Son dos est fauve, marbré de brun foncé ; son ventre est noir avec des taches blanc bleuté.
 </t>
@@ -575,9 +591,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom d'espèce alios, du latin ala, alae, « aile », et os, oris, « bouche », lui a été donné en référence aux excroissances, en forme d'aile, présentes sur la bouche des têtards[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom d'espèce alios, du latin ala, alae, « aile », et os, oris, « bouche », lui a été donné en référence aux excroissances, en forme d'aile, présentes sur la bouche des têtards.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Wild, 1995 : New genus and species of Amazonian microhylid frog with a phylogenetic analysis of new world genera. Copeia, vol. 1995, no 4, p. 837-849 (texte intégral).</t>
         </is>
